--- a/docss/trend/moldova/E_huntington.xlsx
+++ b/docss/trend/moldova/E_huntington.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elena\Desktop\IC3-Design\docs\trend\moldova\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELENA\Desktop\revisado\moldova\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12135" windowHeight="10965" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1559,7 +1559,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="B1" sqref="B1:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1625,13 +1625,13 @@
         <v>2002</v>
       </c>
       <c r="B5" s="7">
-        <v>3.2793119549751282E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>5.73309026658535E-2</v>
+        <v>5.7000000000000002E-2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1667,13 +1667,13 @@
         <v>2005</v>
       </c>
       <c r="B8" s="7">
-        <v>8.5045350715517998E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="C8" s="7">
-        <v>0.11827293783426285</v>
+        <v>0.11799999999999999</v>
       </c>
       <c r="D8" s="7">
-        <v>5.2530467510223389E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1681,10 +1681,10 @@
         <v>2006</v>
       </c>
       <c r="B9" s="7">
-        <v>2.8187161311507225E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="C9" s="7">
-        <v>6.0613404959440231E-2</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="D9" s="7">
         <v>0</v>
@@ -1695,10 +1695,10 @@
         <v>2007</v>
       </c>
       <c r="B10" s="7">
-        <v>2.9337413609027863E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="C10" s="7">
-        <v>6.4494632184505463E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="D10" s="7">
         <v>0</v>
@@ -1709,13 +1709,13 @@
         <v>2008</v>
       </c>
       <c r="B11" s="7">
-        <v>7.9866083338856697E-2</v>
+        <v>0.08</v>
       </c>
       <c r="C11" s="7">
-        <v>6.1287920922040939E-2</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="D11" s="7">
-        <v>9.4634883105754852E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1723,13 +1723,13 @@
         <v>2009</v>
       </c>
       <c r="B12" s="7">
-        <v>4.7778738662600517E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="C12" s="7">
-        <v>6.9060772657394409E-2</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="D12" s="7">
-        <v>4.8779468983411789E-2</v>
+        <v>4.9000000000000002E-2</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1737,13 +1737,13 @@
         <v>2010</v>
       </c>
       <c r="B13" s="7">
-        <v>2.6113849133253098E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="C13" s="7">
         <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>4.8827104270458221E-2</v>
+        <v>4.9000000000000002E-2</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1751,10 +1751,10 @@
         <v>2011</v>
       </c>
       <c r="B14" s="7">
-        <v>3.022133931517601E-2</v>
+        <v>0.03</v>
       </c>
       <c r="C14" s="7">
-        <v>6.8784303963184357E-2</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="D14" s="7">
         <v>0</v>
@@ -1779,10 +1779,10 @@
         <v>2013</v>
       </c>
       <c r="B16" s="7">
-        <v>7.9062681645154953E-2</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="C16" s="7">
-        <v>0.16621763631701469</v>
+        <v>0.16600000000000001</v>
       </c>
       <c r="D16" s="7">
         <v>0</v>
@@ -1793,13 +1793,13 @@
         <v>2014</v>
       </c>
       <c r="B17" s="7">
-        <v>5.1020294427871704E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="C17" s="7">
-        <v>5.7265333831310272E-2</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="D17" s="7">
-        <v>4.4504113495349884E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
     </row>
   </sheetData>
